--- a/Clase 5/Ejerccicio22-Memoria.xlsx
+++ b/Clase 5/Ejerccicio22-Memoria.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="24">
   <si>
     <t>Marco/Página</t>
   </si>
@@ -86,12 +86,15 @@
   <si>
     <t>Reemplaza la página que no fue referenciada por más tiempo</t>
   </si>
+  <si>
+    <t>Óptimo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +120,14 @@
     </font>
     <font>
       <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -218,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,6 +304,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -598,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2744,9 +2758,12 @@
         <v>22</v>
       </c>
     </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="E40" s="28"/>
+    </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" s="27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B42" s="10">
         <v>1</v>
